--- a/Cart_Jan21_0634PM.xlsx
+++ b/Cart_Jan21_0634PM.xlsx
@@ -849,9 +849,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>132840</xdr:rowOff>
+      <xdr:rowOff>132480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -865,7 +865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="2609640" cy="894960"/>
+          <a:ext cx="2609280" cy="894600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -887,11 +887,11 @@
   </sheetPr>
   <dimension ref="A6:L1054"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G24" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L37" activeCellId="0" sqref="L37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C34" activeCellId="0" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.43"/>
@@ -901,9 +901,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="100"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="25.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.7"/>
   </cols>
   <sheetData>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1717,7 +1717,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
         <v>27</v>
       </c>
@@ -1729,6 +1729,9 @@
       </c>
       <c r="D36" s="0" t="s">
         <v>80</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>29</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>152</v>
